--- a/mbs-perturbation/mega/decisionTree/smote/mega-decisionTree-smote-results.xlsx
+++ b/mbs-perturbation/mega/decisionTree/smote/mega-decisionTree-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7204724409448819</v>
+        <v>0.6535087719298246</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9838709677419355</v>
+        <v>0.8816568047337278</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8318181818181819</v>
+        <v>0.7506297229219144</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8906954561220951</v>
+        <v>0.8023003396239627</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9435483870967742</v>
+        <v>0.5547445255474452</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6290322580645161</v>
+        <v>0.8994082840236687</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7548387096774193</v>
+        <v>0.6862302483069979</v>
       </c>
       <c r="E3" t="n">
-        <v>0.889091224419008</v>
+        <v>0.8099856447603376</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8846153846153846</v>
+        <v>0.9013157894736842</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8655913978494624</v>
+        <v>0.8106508875739645</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8749999999999999</v>
+        <v>0.8535825545171339</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9313215400624349</v>
+        <v>0.8465389867301565</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6346863468634686</v>
+        <v>0.8023255813953488</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9247311827956989</v>
+        <v>0.8165680473372781</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7527352297592996</v>
+        <v>0.8093841642228738</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5999128160418483</v>
+        <v>0.9268933160603622</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9872611464968153</v>
+        <v>0.9863013698630136</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8378378378378378</v>
+        <v>0.8520710059171598</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9064327485380117</v>
+        <v>0.9142857142857144</v>
       </c>
       <c r="E6" t="n">
-        <v>0.894202266782912</v>
+        <v>0.9543958544868878</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8341167412034649</v>
+        <v>0.7796392076418633</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8482127288578901</v>
+        <v>0.8520710059171597</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8241649739585825</v>
+        <v>0.802822480850927</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8410446606856598</v>
+        <v>0.8680228283323412</v>
       </c>
     </row>
   </sheetData>
